--- a/PotencialWS.xlsx
+++ b/PotencialWS.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.760481789401909</v>
+        <v>0.7958925287356322</v>
       </c>
       <c r="D2">
-        <v>2.496870231833236</v>
+        <v>1.2677</v>
       </c>
       <c r="E2">
-        <v>1.050260146762777</v>
+        <v>0.3826827586206897</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -438,13 +438,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.760886111111111</v>
+        <v>0.5190166666666667</v>
       </c>
       <c r="D3">
-        <v>2.495755555555556</v>
+        <v>0.8443678571428574</v>
       </c>
       <c r="E3">
-        <v>1.036372222222222</v>
+        <v>0.2277666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,13 +455,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.552628888888889</v>
+        <v>0.7255067901234569</v>
       </c>
       <c r="D4">
-        <v>2.239811111111111</v>
+        <v>1.120123456790123</v>
       </c>
       <c r="E4">
-        <v>0.8972944444444445</v>
+        <v>0.3482709876543211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.468617777777778</v>
+        <v>0.7583846271174136</v>
       </c>
       <c r="D5">
-        <v>2.107311111111111</v>
+        <v>1.216110154834043</v>
       </c>
       <c r="E5">
-        <v>0.8539611111111113</v>
+        <v>0.3381891025641026</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -489,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.41892856873823</v>
+        <v>1.008671172003284</v>
       </c>
       <c r="D6">
-        <v>1.995426459510358</v>
+        <v>1.54474158456486</v>
       </c>
       <c r="E6">
-        <v>0.8606269303201505</v>
+        <v>0.4849176108374385</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -506,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.342075555555556</v>
+        <v>0.8064758620689655</v>
       </c>
       <c r="D7">
-        <v>1.896494444444445</v>
+        <v>1.253954674329502</v>
       </c>
       <c r="E7">
-        <v>0.7878555555555554</v>
+        <v>0.3761077777777778</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -523,13 +523,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.254011544256121</v>
+        <v>0.8468601461988302</v>
       </c>
       <c r="D8">
-        <v>1.783316101694916</v>
+        <v>1.314422485380117</v>
       </c>
       <c r="E8">
-        <v>0.7428016949152542</v>
+        <v>0.3894254385964912</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.299547482810133</v>
+        <v>1.738466666666666</v>
       </c>
       <c r="D9">
-        <v>1.946657431502485</v>
+        <v>2.573983888888889</v>
       </c>
       <c r="E9">
-        <v>0.6767914331025303</v>
+        <v>0.9107383333333333</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -557,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.692326666666667</v>
+        <v>2.539942777777779</v>
       </c>
       <c r="D10">
-        <v>2.627905555555555</v>
+        <v>3.749707777777778</v>
       </c>
       <c r="E10">
-        <v>0.7780666666666669</v>
+        <v>1.417236111111112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.198907777777778</v>
+        <v>3.395903888888889</v>
       </c>
       <c r="D11">
-        <v>3.432044444444445</v>
+        <v>4.89941</v>
       </c>
       <c r="E11">
-        <v>0.9908722222222223</v>
+        <v>2.012795555555555</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.383512768361582</v>
+        <v>3.622209999999999</v>
       </c>
       <c r="D12">
-        <v>3.842654519774011</v>
+        <v>5.224142777777777</v>
       </c>
       <c r="E12">
-        <v>0.9603640301318267</v>
+        <v>2.169483888888889</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.409156877394636</v>
+        <v>3.524408333333333</v>
       </c>
       <c r="D13">
-        <v>4.021325862068966</v>
+        <v>5.100322777777778</v>
       </c>
       <c r="E13">
-        <v>0.8869869731800767</v>
+        <v>2.085353888888889</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -625,13 +625,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.316751111111111</v>
+        <v>3.246075</v>
       </c>
       <c r="D14">
-        <v>3.960822222222222</v>
+        <v>4.753877777777777</v>
       </c>
       <c r="E14">
-        <v>0.8189611111111111</v>
+        <v>1.87121</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.195340555555555</v>
+        <v>3.092773888888888</v>
       </c>
       <c r="D15">
-        <v>3.775944444444444</v>
+        <v>4.511158888888889</v>
       </c>
       <c r="E15">
-        <v>0.7743888888888887</v>
+        <v>1.774237222222222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -659,13 +659,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.99037422787194</v>
+        <v>2.550061111111111</v>
       </c>
       <c r="D16">
-        <v>3.408694632768362</v>
+        <v>3.832593888888889</v>
       </c>
       <c r="E16">
-        <v>0.7096721280602639</v>
+        <v>1.375397777777778</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -676,13 +676,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.892314143126177</v>
+        <v>2.308845</v>
       </c>
       <c r="D17">
-        <v>3.125456497175142</v>
+        <v>3.672905</v>
       </c>
       <c r="E17">
-        <v>0.7340299435028251</v>
+        <v>1.146368333333334</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.879075</v>
+        <v>1.893727777777778</v>
       </c>
       <c r="D18">
-        <v>2.885844444444445</v>
+        <v>3.145138888888889</v>
       </c>
       <c r="E18">
-        <v>0.870561111111111</v>
+        <v>0.8249233333333336</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -710,13 +710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.593993333333333</v>
+        <v>1.302143333333333</v>
       </c>
       <c r="D19">
-        <v>2.315655555555556</v>
+        <v>2.254043333333333</v>
       </c>
       <c r="E19">
-        <v>0.8834000000000003</v>
+        <v>0.5029150000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -727,13 +727,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.715472777777778</v>
+        <v>0.7875544444444444</v>
       </c>
       <c r="D20">
-        <v>2.448288888888889</v>
+        <v>1.497938333333333</v>
       </c>
       <c r="E20">
-        <v>1.006022222222222</v>
+        <v>0.2379605555555556</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -744,13 +744,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.763176666666666</v>
+        <v>0.7613138271604939</v>
       </c>
       <c r="D21">
-        <v>2.477277777777778</v>
+        <v>1.529795679012346</v>
       </c>
       <c r="E21">
-        <v>1.061366666666667</v>
+        <v>0.1930358641975309</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -761,13 +761,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.819161111111111</v>
+        <v>0.7488194444444445</v>
       </c>
       <c r="D22">
-        <v>2.553216666666666</v>
+        <v>1.391993888888889</v>
       </c>
       <c r="E22">
-        <v>1.1169</v>
+        <v>0.2410633333333333</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -778,13 +778,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.195621111111111</v>
+        <v>0.7639913793103449</v>
       </c>
       <c r="D23">
-        <v>3.107072222222222</v>
+        <v>1.379608620689656</v>
       </c>
       <c r="E23">
-        <v>1.308244444444444</v>
+        <v>0.2702166666666667</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -795,13 +795,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.213688333333333</v>
+        <v>0.8794871794871792</v>
       </c>
       <c r="D24">
-        <v>3.164366666666667</v>
+        <v>1.519280813439434</v>
       </c>
       <c r="E24">
-        <v>1.29885</v>
+        <v>0.3263338196286472</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.874513333333334</v>
+        <v>0.8689092105263162</v>
       </c>
       <c r="D25">
-        <v>2.676438888888889</v>
+        <v>1.433145818713451</v>
       </c>
       <c r="E25">
-        <v>1.112077777777778</v>
+        <v>0.3893062865497076</v>
       </c>
     </row>
   </sheetData>
